--- a/productos_ejemplo.xlsx
+++ b/productos_ejemplo.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sistema\Documentos\GitHub\Xpatl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5F9A56A-EA82-4991-B85E-EBC102E1283C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D6C7FA-B3C7-4E56-8BC2-FC59B7C8A31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15345"/>
+    <workbookView xWindow="11565" yWindow="4230" windowWidth="12330" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -31,12 +31,6 @@
     <t>Existencia</t>
   </si>
   <si>
-    <t>Precio</t>
-  </si>
-  <si>
-    <t>Precio_distribuidor</t>
-  </si>
-  <si>
     <t>ABAI40ML</t>
   </si>
   <si>
@@ -1574,12 +1568,18 @@
   </si>
   <si>
     <t>ZYANYA 6D3ML</t>
+  </si>
+  <si>
+    <t>Precio_lista</t>
+  </si>
+  <si>
+    <t>Precio_descuento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2414,10 +2414,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E260"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2432,4413 +2434,4413 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>516</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>517</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>41</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>52</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E4">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>43</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E5">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>164</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>149</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>38</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>100</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>142</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>316</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E11">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>59</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E12">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>30</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E13">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>11</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>52</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E15">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E16">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17">
         <v>140</v>
       </c>
       <c r="D17">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>6</v>
       </c>
       <c r="D18">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20">
         <v>11</v>
       </c>
       <c r="D20">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E20">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C22">
         <v>177</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E22">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C23">
         <v>70</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E23">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C24">
         <v>274</v>
       </c>
       <c r="D24">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C25">
         <v>174</v>
       </c>
       <c r="D25">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E25">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C26">
         <v>67</v>
       </c>
       <c r="D26">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E26">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C27">
         <v>74</v>
       </c>
       <c r="D27">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E27">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C28">
         <v>79</v>
       </c>
       <c r="D28">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C29">
         <v>225</v>
       </c>
       <c r="D29">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E29">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C30">
         <v>203</v>
       </c>
       <c r="D30">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E30">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C31">
         <v>99</v>
       </c>
       <c r="D31">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C32">
         <v>52</v>
       </c>
       <c r="D32">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C33">
         <v>196</v>
       </c>
       <c r="D33">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E33">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C34">
         <v>3</v>
       </c>
       <c r="D34">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E34">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
       <c r="D35">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E35">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E36">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C37">
         <v>79</v>
       </c>
       <c r="D37">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E37">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C38">
         <v>120</v>
       </c>
       <c r="D38">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E38">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C39">
         <v>106</v>
       </c>
       <c r="D39">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C40">
         <v>15</v>
       </c>
       <c r="D40">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E40">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C41">
         <v>8</v>
       </c>
       <c r="D41">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E41">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C42">
         <v>-7</v>
       </c>
       <c r="D42">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E42">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C43">
         <v>13</v>
       </c>
       <c r="D43">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E43">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C44">
         <v>8</v>
       </c>
       <c r="D44">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E44">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C45">
         <v>5</v>
       </c>
       <c r="D45">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C46">
         <v>7</v>
       </c>
       <c r="D46">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E46">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C47">
         <v>54</v>
       </c>
       <c r="D47">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E47">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C48">
         <v>7</v>
       </c>
       <c r="D48">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E48">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C50">
         <v>5</v>
       </c>
       <c r="D50">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E50">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E51">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C52">
         <v>6</v>
       </c>
       <c r="D52">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E52">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C53">
         <v>9</v>
       </c>
       <c r="D53">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E53">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B54" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C54">
         <v>8</v>
       </c>
       <c r="D54">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E54">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C55">
         <v>13</v>
       </c>
       <c r="D55">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E55">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B56" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C56">
         <v>11</v>
       </c>
       <c r="D56">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E56">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B57" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C57">
         <v>6</v>
       </c>
       <c r="D57">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E57">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C58">
         <v>84</v>
       </c>
       <c r="D58">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E58">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C59">
         <v>71</v>
       </c>
       <c r="D59">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E59">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C60">
         <v>30</v>
       </c>
       <c r="D60">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E60">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C61">
         <v>2</v>
       </c>
       <c r="D61">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E61">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C62">
         <v>42</v>
       </c>
       <c r="D62">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E62">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B63" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C63">
         <v>98</v>
       </c>
       <c r="D63">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E63">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B64" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C64">
         <v>37</v>
       </c>
       <c r="D64">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E64">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B65" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C65">
         <v>64</v>
       </c>
       <c r="D65">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E65">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B66" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C66">
         <v>150</v>
       </c>
       <c r="D66">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E66">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B67" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E67">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B68" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C68">
         <v>69</v>
       </c>
       <c r="D68">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E68">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B69" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C69">
         <v>5</v>
       </c>
       <c r="D69">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E69">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B70" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C70">
         <v>276</v>
       </c>
       <c r="D70">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E70">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B71" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C71">
         <v>134</v>
       </c>
       <c r="D71">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E71">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C72">
         <v>85</v>
       </c>
       <c r="D72">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E72">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B73" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C73">
         <v>30</v>
       </c>
       <c r="D73">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E73">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B74" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E74">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B75" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E75">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B76" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E76">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B77" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C77">
         <v>12</v>
       </c>
       <c r="D77">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E77">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B78" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C78">
         <v>45</v>
       </c>
       <c r="D78">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E78">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B79" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C79">
         <v>22</v>
       </c>
       <c r="D79">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E79">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B80" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C80">
         <v>101</v>
       </c>
       <c r="D80">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E80">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B81" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C81">
         <v>-1</v>
       </c>
       <c r="D81">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E81">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B82" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C82">
         <v>5</v>
       </c>
       <c r="D82">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E82">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B83" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C83">
         <v>2</v>
       </c>
       <c r="D83">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E83">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B84" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C84">
         <v>111</v>
       </c>
       <c r="D84">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E84">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B85" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E85">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B86" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E86">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B87" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C87">
         <v>112</v>
       </c>
       <c r="D87">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E87">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B88" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C88">
         <v>156</v>
       </c>
       <c r="D88">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E88">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B89" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C89">
         <v>14</v>
       </c>
       <c r="D89">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E89">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B90" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C90">
         <v>5</v>
       </c>
       <c r="D90">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E90">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B91" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C91">
         <v>4</v>
       </c>
       <c r="D91">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E91">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B92" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C92">
         <v>5</v>
       </c>
       <c r="D92">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E92">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B93" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C93">
         <v>4</v>
       </c>
       <c r="D93">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E93">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B94" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C94">
         <v>3.8</v>
       </c>
       <c r="D94">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E94">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B95" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C95">
         <v>5</v>
       </c>
       <c r="D95">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E95">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B96" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C96">
         <v>5</v>
       </c>
       <c r="D96">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E96">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B97" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C97">
         <v>31</v>
       </c>
       <c r="D97">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E97">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B98" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C98">
         <v>82</v>
       </c>
       <c r="D98">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E98">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B99" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C99">
         <v>50</v>
       </c>
       <c r="D99">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E99">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B100" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C100">
         <v>104</v>
       </c>
       <c r="D100">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E100">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B101" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C101">
         <v>119</v>
       </c>
       <c r="D101">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E101">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B102" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C102">
         <v>127</v>
       </c>
       <c r="D102">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E102">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B103" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C103">
         <v>127</v>
       </c>
       <c r="D103">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E103">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B104" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C104">
         <v>146</v>
       </c>
       <c r="D104">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E104">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C105">
         <v>260</v>
       </c>
       <c r="D105">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E105">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B106" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C106">
         <v>153</v>
       </c>
       <c r="D106">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E106">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B107" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C107">
         <v>94</v>
       </c>
       <c r="D107">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E107">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B108" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C108">
         <v>152</v>
       </c>
       <c r="D108">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E108">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B109" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C109">
         <v>5</v>
       </c>
       <c r="D109">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E109">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B110" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C110">
         <v>57</v>
       </c>
       <c r="D110">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E110">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B111" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C111">
         <v>60</v>
       </c>
       <c r="D111">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E111">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B112" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C112">
         <v>229</v>
       </c>
       <c r="D112">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E112">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B113" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C113">
         <v>192</v>
       </c>
       <c r="D113">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E113">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B114" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C114">
         <v>33</v>
       </c>
       <c r="D114">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E114">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B115" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C115">
         <v>206</v>
       </c>
       <c r="D115">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E115">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B116" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C116">
         <v>100</v>
       </c>
       <c r="D116">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E116">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B117" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C117">
         <v>100</v>
       </c>
       <c r="D117">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E117">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B118" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C118">
         <v>218</v>
       </c>
       <c r="D118">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E118">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B119" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C119">
         <v>56</v>
       </c>
       <c r="D119">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E119">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B120" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C120">
         <v>71</v>
       </c>
       <c r="D120">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E120">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B121" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C121">
         <v>146</v>
       </c>
       <c r="D121">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E121">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B122" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C122">
         <v>197</v>
       </c>
       <c r="D122">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E122">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B123" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C123">
         <v>173</v>
       </c>
       <c r="D123">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E123">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B124" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C124">
         <v>25</v>
       </c>
       <c r="D124">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E124">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B125" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C125">
         <v>8</v>
       </c>
       <c r="D125">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E125">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B126" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C126">
         <v>95</v>
       </c>
       <c r="D126">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E126">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B127" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C127">
         <v>202</v>
       </c>
       <c r="D127">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E127">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B128" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C128">
         <v>107</v>
       </c>
       <c r="D128">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E128">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B129" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C129">
         <v>82</v>
       </c>
       <c r="D129">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E129">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B130" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C130">
         <v>2</v>
       </c>
       <c r="D130">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E130">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B131" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C131">
         <v>5</v>
       </c>
       <c r="D131">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E131">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B132" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C132">
         <v>26</v>
       </c>
       <c r="D132">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E132">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B133" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C133">
         <v>42</v>
       </c>
       <c r="D133">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E133">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B134" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C134">
         <v>64</v>
       </c>
       <c r="D134">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E134">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B135" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C135">
         <v>6</v>
       </c>
       <c r="D135">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E135">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B136" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C136">
         <v>43</v>
       </c>
       <c r="D136">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E136">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B137" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C137">
         <v>209</v>
       </c>
       <c r="D137">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E137">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B138" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C138">
         <v>216</v>
       </c>
       <c r="D138">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E138">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B139" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C139">
         <v>114</v>
       </c>
       <c r="D139">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E139">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B140" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C140">
         <v>151</v>
       </c>
       <c r="D140">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E140">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B141" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C141">
         <v>100</v>
       </c>
       <c r="D141">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E141">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B142" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C142">
         <v>300</v>
       </c>
       <c r="D142">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E142">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B143" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C143">
         <v>300</v>
       </c>
       <c r="D143">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E143">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B144" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C144">
         <v>300</v>
       </c>
       <c r="D144">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E144">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B145" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C145">
         <v>0</v>
       </c>
       <c r="D145">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E145">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B146" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C146">
         <v>0</v>
       </c>
       <c r="D146">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E146">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B147" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C147">
         <v>0</v>
       </c>
       <c r="D147">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E147">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B148" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C148">
         <v>0</v>
       </c>
       <c r="D148">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E148">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B149" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C149">
         <v>0</v>
       </c>
       <c r="D149">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E149">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B150" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C150">
         <v>0</v>
       </c>
       <c r="D150">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E150">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B151" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C151">
         <v>300</v>
       </c>
       <c r="D151">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E151">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B152" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C152">
         <v>0</v>
       </c>
       <c r="D152">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E152">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B153" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C153">
         <v>0</v>
       </c>
       <c r="D153">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E153">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B154" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C154">
         <v>0</v>
       </c>
       <c r="D154">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E154">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B155" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C155">
         <v>300</v>
       </c>
       <c r="D155">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E155">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B156" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C156">
         <v>0</v>
       </c>
       <c r="D156">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E156">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B157" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C157">
         <v>0</v>
       </c>
       <c r="D157">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E157">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B158" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C158">
         <v>0</v>
       </c>
       <c r="D158">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E158">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B159" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C159">
         <v>0</v>
       </c>
       <c r="D159">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E159">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B160" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C160">
         <v>0</v>
       </c>
       <c r="D160">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E160">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B161" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C161">
         <v>300</v>
       </c>
       <c r="D161">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E161">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B162" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C162">
         <v>0</v>
       </c>
       <c r="D162">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E162">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B163" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C163">
         <v>0</v>
       </c>
       <c r="D163">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E163">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B164" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C164">
         <v>0</v>
       </c>
       <c r="D164">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E164">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B165" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C165">
         <v>0</v>
       </c>
       <c r="D165">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E165">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B166" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C166">
         <v>0</v>
       </c>
       <c r="D166">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E166">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C167">
         <v>0</v>
       </c>
       <c r="D167">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E167">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B168" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C168">
         <v>0</v>
       </c>
       <c r="D168">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E168">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B169" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C169">
         <v>0</v>
       </c>
       <c r="D169">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E169">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B170" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C170">
         <v>76</v>
       </c>
       <c r="D170">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E170">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B171" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C171">
         <v>65</v>
       </c>
       <c r="D171">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E171">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B172" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C172">
         <v>175</v>
       </c>
       <c r="D172">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E172">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B173" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C173">
         <v>20</v>
       </c>
       <c r="D173">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E173">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B174" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C174">
         <v>21</v>
       </c>
       <c r="D174">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E174">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B175" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C175">
         <v>74</v>
       </c>
       <c r="D175">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E175">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B176" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C176">
         <v>231</v>
       </c>
       <c r="D176">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E176">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B177" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C177">
         <v>181</v>
       </c>
       <c r="D177">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E177">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B178" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C178">
         <v>113</v>
       </c>
       <c r="D178">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E178">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B179" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C179">
         <v>33</v>
       </c>
       <c r="D179">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E179">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B180" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C180">
         <v>84</v>
       </c>
       <c r="D180">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E180">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B181" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C181">
         <v>30</v>
       </c>
       <c r="D181">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E181">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B182" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C182">
         <v>50</v>
       </c>
       <c r="D182">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E182">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B183" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C183">
         <v>191</v>
       </c>
       <c r="D183">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E183">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B184" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C184">
         <v>127</v>
       </c>
       <c r="D184">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E184">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B185" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C185">
         <v>92</v>
       </c>
       <c r="D185">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E185">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B186" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C186">
         <v>403</v>
       </c>
       <c r="D186">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E186">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B187" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C187">
         <v>216</v>
       </c>
       <c r="D187">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E187">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B188" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C188">
         <v>3</v>
       </c>
       <c r="D188">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E188">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B189" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C189">
         <v>4</v>
       </c>
       <c r="D189">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E189">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B190" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C190">
         <v>-1</v>
       </c>
       <c r="D190">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E190">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B191" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C191">
         <v>5</v>
       </c>
       <c r="D191">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E191">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B192" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C192">
         <v>4</v>
       </c>
       <c r="D192">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E192">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B193" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C193">
         <v>-1</v>
       </c>
       <c r="D193">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E193">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B194" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C194">
         <v>0</v>
       </c>
       <c r="D194">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E194">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B195" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C195">
         <v>0</v>
       </c>
       <c r="D195">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E195">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B196" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C196">
         <v>0</v>
       </c>
       <c r="D196">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E196">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B197" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C197">
         <v>56</v>
       </c>
       <c r="D197">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E197">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B198" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C198">
         <v>0</v>
       </c>
       <c r="D198">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E198">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B199" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C199">
         <v>0</v>
       </c>
       <c r="D199">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E199">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B200" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C200">
         <v>0</v>
       </c>
       <c r="D200">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E200">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B201" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C201">
         <v>38</v>
       </c>
       <c r="D201">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E201">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B202" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C202">
         <v>144</v>
       </c>
       <c r="D202">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E202">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B203" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C203">
         <v>0</v>
       </c>
       <c r="D203">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E203">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B204" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C204">
         <v>21</v>
       </c>
       <c r="D204">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E204">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B205" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C205">
         <v>8</v>
       </c>
       <c r="D205">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E205">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B206" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C206">
         <v>0</v>
       </c>
       <c r="D206">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E206">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B207" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C207">
         <v>2</v>
       </c>
       <c r="D207">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E207">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B208" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C208">
         <v>67</v>
       </c>
       <c r="D208">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E208">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B209" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C209">
         <v>29</v>
       </c>
       <c r="D209">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E209">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B210" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C210">
         <v>10</v>
       </c>
       <c r="D210">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E210">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B211" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E211">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B212" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C212">
         <v>45</v>
       </c>
       <c r="D212">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E212">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B213" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C213">
         <v>150</v>
       </c>
       <c r="D213">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E213">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B214" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C214">
         <v>88</v>
       </c>
       <c r="D214">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E214">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B215" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C215">
         <v>273</v>
       </c>
       <c r="D215">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E215">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B216" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C216">
         <v>94</v>
       </c>
       <c r="D216">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E216">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B217" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C217">
         <v>61</v>
       </c>
       <c r="D217">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E217">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B218" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C218">
         <v>48</v>
       </c>
       <c r="D218">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E218">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B219" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C219">
         <v>54</v>
       </c>
       <c r="D219">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E219">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B220" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C220">
         <v>140</v>
       </c>
       <c r="D220">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E220">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B221" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C221">
         <v>54</v>
       </c>
       <c r="D221">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E221">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B222" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C222">
         <v>5</v>
       </c>
       <c r="D222">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E222">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B223" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C223">
         <v>29</v>
       </c>
       <c r="D223">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E223">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B224" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C224" s="1">
         <v>1126</v>
       </c>
       <c r="D224">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E224">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B225" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C225">
         <v>98</v>
       </c>
       <c r="D225">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E225">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B226" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C226">
         <v>111</v>
       </c>
       <c r="D226">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E226">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B227" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C227">
         <v>73</v>
       </c>
       <c r="D227">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E227">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B228" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C228">
         <v>51</v>
       </c>
       <c r="D228">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E228">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B229" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E229">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B230" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C230">
         <v>127</v>
       </c>
       <c r="D230">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E230">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B231" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C231">
         <v>37</v>
       </c>
       <c r="D231">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E231">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B232" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C232">
         <v>105</v>
       </c>
       <c r="D232">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E232">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B233" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C233">
         <v>54</v>
       </c>
       <c r="D233">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E233">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B234" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C234">
         <v>130</v>
       </c>
       <c r="D234">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E234">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B235" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C235">
         <v>121</v>
       </c>
       <c r="D235">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E235">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B236" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C236">
         <v>76</v>
       </c>
       <c r="D236">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E236">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B237" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C237">
         <v>49</v>
       </c>
       <c r="D237">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E237">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B238" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C238">
         <v>49</v>
       </c>
       <c r="D238">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E238">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B239" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C239">
         <v>90</v>
       </c>
       <c r="D239">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E239">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B240" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C240">
         <v>0</v>
       </c>
       <c r="D240">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E240">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B241" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C241">
         <v>199</v>
       </c>
       <c r="D241">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E241">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B242" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C242">
         <v>429</v>
       </c>
       <c r="D242">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E242">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B243" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C243">
         <v>87</v>
       </c>
       <c r="D243">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E243">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B244" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C244">
         <v>95</v>
       </c>
       <c r="D244">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E244">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B245" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C245">
         <v>15</v>
       </c>
       <c r="D245">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E245">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B246" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C246">
         <v>170</v>
       </c>
       <c r="D246">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E246">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B247" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C247">
         <v>72</v>
       </c>
       <c r="D247">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E247">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B248" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C248">
         <v>107</v>
       </c>
       <c r="D248">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E248">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B249" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C249">
         <v>117</v>
       </c>
       <c r="D249">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E249">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B250" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C250">
         <v>158</v>
       </c>
       <c r="D250">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E250">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B251" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C251">
         <v>43</v>
       </c>
       <c r="D251">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E251">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B252" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C252">
         <v>58</v>
       </c>
       <c r="D252">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E252">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B253" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C253">
         <v>204</v>
       </c>
       <c r="D253">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E253">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B254" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C254">
         <v>38</v>
       </c>
       <c r="D254">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E254">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B255" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C255">
         <v>2</v>
       </c>
       <c r="D255">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E255">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B256" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C256">
         <v>434</v>
       </c>
       <c r="D256">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E256">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B257" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C257">
         <v>49</v>
       </c>
       <c r="D257">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E257">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B258" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C258">
         <v>47</v>
       </c>
       <c r="D258">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E258">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B259" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C259">
         <v>79</v>
       </c>
       <c r="D259">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E259">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B260" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C260">
         <v>14</v>
       </c>
       <c r="D260">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E260">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/productos_ejemplo.xlsx
+++ b/productos_ejemplo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sistema\Documentos\GitHub\Xpatl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D6C7FA-B3C7-4E56-8BC2-FC59B7C8A31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773DE1FB-F5A8-4843-A42B-F3F3832984A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11565" yWindow="4230" windowWidth="12330" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7680" yWindow="3510" windowWidth="16200" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -1573,7 +1573,7 @@
     <t>Precio_lista</t>
   </si>
   <si>
-    <t>Precio_descuento</t>
+    <t>Descuento</t>
   </si>
 </sst>
 </file>
@@ -2418,7 +2418,7 @@
   <dimension ref="A1:E260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1048576"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2454,7 +2454,7 @@
         <v>50</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2471,7 +2471,7 @@
         <v>50</v>
       </c>
       <c r="E3">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2488,7 +2488,7 @@
         <v>50</v>
       </c>
       <c r="E4">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2522,7 +2522,7 @@
         <v>50</v>
       </c>
       <c r="E6">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2539,7 +2539,7 @@
         <v>50</v>
       </c>
       <c r="E7">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2556,7 +2556,7 @@
         <v>50</v>
       </c>
       <c r="E8">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2573,7 +2573,7 @@
         <v>50</v>
       </c>
       <c r="E9">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2590,7 +2590,7 @@
         <v>50</v>
       </c>
       <c r="E10">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2607,7 +2607,7 @@
         <v>50</v>
       </c>
       <c r="E11">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2624,7 +2624,7 @@
         <v>50</v>
       </c>
       <c r="E12">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2641,7 +2641,7 @@
         <v>50</v>
       </c>
       <c r="E13">
-        <v>25</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2658,7 +2658,7 @@
         <v>50</v>
       </c>
       <c r="E14">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2675,7 +2675,7 @@
         <v>50</v>
       </c>
       <c r="E15">
-        <v>25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2692,7 +2692,7 @@
         <v>50</v>
       </c>
       <c r="E16">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2709,7 +2709,7 @@
         <v>50</v>
       </c>
       <c r="E17">
-        <v>25</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2726,7 +2726,7 @@
         <v>50</v>
       </c>
       <c r="E18">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2743,7 +2743,7 @@
         <v>50</v>
       </c>
       <c r="E19">
-        <v>25</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2760,7 +2760,7 @@
         <v>50</v>
       </c>
       <c r="E20">
-        <v>25</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2777,7 +2777,7 @@
         <v>50</v>
       </c>
       <c r="E21">
-        <v>25</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2794,7 +2794,7 @@
         <v>50</v>
       </c>
       <c r="E22">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2811,7 +2811,7 @@
         <v>50</v>
       </c>
       <c r="E23">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2828,7 +2828,7 @@
         <v>50</v>
       </c>
       <c r="E24">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2845,7 +2845,7 @@
         <v>50</v>
       </c>
       <c r="E25">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2862,7 +2862,7 @@
         <v>50</v>
       </c>
       <c r="E26">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2879,7 +2879,7 @@
         <v>50</v>
       </c>
       <c r="E27">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2896,7 +2896,7 @@
         <v>50</v>
       </c>
       <c r="E28">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2913,7 +2913,7 @@
         <v>50</v>
       </c>
       <c r="E29">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2930,7 +2930,7 @@
         <v>50</v>
       </c>
       <c r="E30">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2947,7 +2947,7 @@
         <v>50</v>
       </c>
       <c r="E31">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2964,7 +2964,7 @@
         <v>50</v>
       </c>
       <c r="E32">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2981,7 +2981,7 @@
         <v>50</v>
       </c>
       <c r="E33">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2998,7 +2998,7 @@
         <v>50</v>
       </c>
       <c r="E34">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3015,7 +3015,7 @@
         <v>50</v>
       </c>
       <c r="E35">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3032,7 +3032,7 @@
         <v>50</v>
       </c>
       <c r="E36">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3049,7 +3049,7 @@
         <v>50</v>
       </c>
       <c r="E37">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3066,7 +3066,7 @@
         <v>50</v>
       </c>
       <c r="E38">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3083,7 +3083,7 @@
         <v>50</v>
       </c>
       <c r="E39">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -3100,7 +3100,7 @@
         <v>50</v>
       </c>
       <c r="E40">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3117,7 +3117,7 @@
         <v>50</v>
       </c>
       <c r="E41">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3134,7 +3134,7 @@
         <v>50</v>
       </c>
       <c r="E42">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3151,7 +3151,7 @@
         <v>50</v>
       </c>
       <c r="E43">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3168,7 +3168,7 @@
         <v>50</v>
       </c>
       <c r="E44">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3185,7 +3185,7 @@
         <v>50</v>
       </c>
       <c r="E45">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3202,7 +3202,7 @@
         <v>50</v>
       </c>
       <c r="E46">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3219,7 +3219,7 @@
         <v>50</v>
       </c>
       <c r="E47">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3236,7 +3236,7 @@
         <v>50</v>
       </c>
       <c r="E48">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3253,7 +3253,7 @@
         <v>50</v>
       </c>
       <c r="E49">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -3270,7 +3270,7 @@
         <v>50</v>
       </c>
       <c r="E50">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -3287,7 +3287,7 @@
         <v>50</v>
       </c>
       <c r="E51">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -3304,7 +3304,7 @@
         <v>50</v>
       </c>
       <c r="E52">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3321,7 +3321,7 @@
         <v>50</v>
       </c>
       <c r="E53">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -3338,7 +3338,7 @@
         <v>50</v>
       </c>
       <c r="E54">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -3355,7 +3355,7 @@
         <v>50</v>
       </c>
       <c r="E55">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -3372,7 +3372,7 @@
         <v>50</v>
       </c>
       <c r="E56">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -3389,7 +3389,7 @@
         <v>50</v>
       </c>
       <c r="E57">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -3406,7 +3406,7 @@
         <v>50</v>
       </c>
       <c r="E58">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -3423,7 +3423,7 @@
         <v>50</v>
       </c>
       <c r="E59">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -3440,7 +3440,7 @@
         <v>50</v>
       </c>
       <c r="E60">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -3457,7 +3457,7 @@
         <v>50</v>
       </c>
       <c r="E61">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="E62">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -3491,7 +3491,7 @@
         <v>50</v>
       </c>
       <c r="E63">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -3508,7 +3508,7 @@
         <v>50</v>
       </c>
       <c r="E64">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -3525,7 +3525,7 @@
         <v>50</v>
       </c>
       <c r="E65">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -3542,7 +3542,7 @@
         <v>50</v>
       </c>
       <c r="E66">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -3559,7 +3559,7 @@
         <v>50</v>
       </c>
       <c r="E67">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -3576,7 +3576,7 @@
         <v>50</v>
       </c>
       <c r="E68">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -3593,7 +3593,7 @@
         <v>50</v>
       </c>
       <c r="E69">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -3610,7 +3610,7 @@
         <v>50</v>
       </c>
       <c r="E70">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3627,7 +3627,7 @@
         <v>50</v>
       </c>
       <c r="E71">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -3644,7 +3644,7 @@
         <v>50</v>
       </c>
       <c r="E72">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -3661,7 +3661,7 @@
         <v>50</v>
       </c>
       <c r="E73">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3678,7 +3678,7 @@
         <v>50</v>
       </c>
       <c r="E74">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -3695,7 +3695,7 @@
         <v>50</v>
       </c>
       <c r="E75">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -3712,7 +3712,7 @@
         <v>50</v>
       </c>
       <c r="E76">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -3729,7 +3729,7 @@
         <v>50</v>
       </c>
       <c r="E77">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -3746,7 +3746,7 @@
         <v>50</v>
       </c>
       <c r="E78">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -3763,7 +3763,7 @@
         <v>50</v>
       </c>
       <c r="E79">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -3780,7 +3780,7 @@
         <v>50</v>
       </c>
       <c r="E80">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -3797,7 +3797,7 @@
         <v>50</v>
       </c>
       <c r="E81">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -3814,7 +3814,7 @@
         <v>50</v>
       </c>
       <c r="E82">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -3831,7 +3831,7 @@
         <v>50</v>
       </c>
       <c r="E83">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -3848,7 +3848,7 @@
         <v>50</v>
       </c>
       <c r="E84">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -3865,7 +3865,7 @@
         <v>50</v>
       </c>
       <c r="E85">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -3882,7 +3882,7 @@
         <v>50</v>
       </c>
       <c r="E86">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -3899,7 +3899,7 @@
         <v>50</v>
       </c>
       <c r="E87">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -3916,7 +3916,7 @@
         <v>50</v>
       </c>
       <c r="E88">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -3933,7 +3933,7 @@
         <v>50</v>
       </c>
       <c r="E89">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -3950,7 +3950,7 @@
         <v>50</v>
       </c>
       <c r="E90">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -3967,7 +3967,7 @@
         <v>50</v>
       </c>
       <c r="E91">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -3984,7 +3984,7 @@
         <v>50</v>
       </c>
       <c r="E92">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -4001,7 +4001,7 @@
         <v>50</v>
       </c>
       <c r="E93">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -4018,7 +4018,7 @@
         <v>50</v>
       </c>
       <c r="E94">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -4035,7 +4035,7 @@
         <v>50</v>
       </c>
       <c r="E95">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -4052,7 +4052,7 @@
         <v>50</v>
       </c>
       <c r="E96">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -4069,7 +4069,7 @@
         <v>50</v>
       </c>
       <c r="E97">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -4086,7 +4086,7 @@
         <v>50</v>
       </c>
       <c r="E98">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -4103,7 +4103,7 @@
         <v>50</v>
       </c>
       <c r="E99">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -4120,7 +4120,7 @@
         <v>50</v>
       </c>
       <c r="E100">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -4137,7 +4137,7 @@
         <v>50</v>
       </c>
       <c r="E101">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -4154,7 +4154,7 @@
         <v>50</v>
       </c>
       <c r="E102">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -4171,7 +4171,7 @@
         <v>50</v>
       </c>
       <c r="E103">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -4188,7 +4188,7 @@
         <v>50</v>
       </c>
       <c r="E104">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -4205,7 +4205,7 @@
         <v>50</v>
       </c>
       <c r="E105">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -4222,7 +4222,7 @@
         <v>50</v>
       </c>
       <c r="E106">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -4239,7 +4239,7 @@
         <v>50</v>
       </c>
       <c r="E107">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -4256,7 +4256,7 @@
         <v>50</v>
       </c>
       <c r="E108">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -4273,7 +4273,7 @@
         <v>50</v>
       </c>
       <c r="E109">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -4290,7 +4290,7 @@
         <v>50</v>
       </c>
       <c r="E110">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -4307,7 +4307,7 @@
         <v>50</v>
       </c>
       <c r="E111">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -4324,7 +4324,7 @@
         <v>50</v>
       </c>
       <c r="E112">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -4341,7 +4341,7 @@
         <v>50</v>
       </c>
       <c r="E113">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -4358,7 +4358,7 @@
         <v>50</v>
       </c>
       <c r="E114">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -4375,7 +4375,7 @@
         <v>50</v>
       </c>
       <c r="E115">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -4392,7 +4392,7 @@
         <v>50</v>
       </c>
       <c r="E116">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -4409,7 +4409,7 @@
         <v>50</v>
       </c>
       <c r="E117">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -4426,7 +4426,7 @@
         <v>50</v>
       </c>
       <c r="E118">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -4443,7 +4443,7 @@
         <v>50</v>
       </c>
       <c r="E119">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -4460,7 +4460,7 @@
         <v>50</v>
       </c>
       <c r="E120">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -4477,7 +4477,7 @@
         <v>50</v>
       </c>
       <c r="E121">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -4494,7 +4494,7 @@
         <v>50</v>
       </c>
       <c r="E122">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -4511,7 +4511,7 @@
         <v>50</v>
       </c>
       <c r="E123">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -4528,7 +4528,7 @@
         <v>50</v>
       </c>
       <c r="E124">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -4545,7 +4545,7 @@
         <v>50</v>
       </c>
       <c r="E125">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -4562,7 +4562,7 @@
         <v>50</v>
       </c>
       <c r="E126">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -4579,7 +4579,7 @@
         <v>50</v>
       </c>
       <c r="E127">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -4596,7 +4596,7 @@
         <v>50</v>
       </c>
       <c r="E128">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -4613,7 +4613,7 @@
         <v>50</v>
       </c>
       <c r="E129">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -4630,7 +4630,7 @@
         <v>50</v>
       </c>
       <c r="E130">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -4647,7 +4647,7 @@
         <v>50</v>
       </c>
       <c r="E131">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -4664,7 +4664,7 @@
         <v>50</v>
       </c>
       <c r="E132">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -4681,7 +4681,7 @@
         <v>50</v>
       </c>
       <c r="E133">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -4698,7 +4698,7 @@
         <v>50</v>
       </c>
       <c r="E134">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -4715,7 +4715,7 @@
         <v>50</v>
       </c>
       <c r="E135">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -4732,7 +4732,7 @@
         <v>50</v>
       </c>
       <c r="E136">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -4749,7 +4749,7 @@
         <v>50</v>
       </c>
       <c r="E137">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -4766,7 +4766,7 @@
         <v>50</v>
       </c>
       <c r="E138">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -4783,7 +4783,7 @@
         <v>50</v>
       </c>
       <c r="E139">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -4800,7 +4800,7 @@
         <v>50</v>
       </c>
       <c r="E140">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -4817,7 +4817,7 @@
         <v>50</v>
       </c>
       <c r="E141">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -4834,7 +4834,7 @@
         <v>50</v>
       </c>
       <c r="E142">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -4851,7 +4851,7 @@
         <v>50</v>
       </c>
       <c r="E143">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -4868,7 +4868,7 @@
         <v>50</v>
       </c>
       <c r="E144">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -4885,7 +4885,7 @@
         <v>50</v>
       </c>
       <c r="E145">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -4902,7 +4902,7 @@
         <v>50</v>
       </c>
       <c r="E146">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -4919,7 +4919,7 @@
         <v>50</v>
       </c>
       <c r="E147">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -4936,7 +4936,7 @@
         <v>50</v>
       </c>
       <c r="E148">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -4953,7 +4953,7 @@
         <v>50</v>
       </c>
       <c r="E149">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -4970,7 +4970,7 @@
         <v>50</v>
       </c>
       <c r="E150">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -4987,7 +4987,7 @@
         <v>50</v>
       </c>
       <c r="E151">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -5004,7 +5004,7 @@
         <v>50</v>
       </c>
       <c r="E152">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -5021,7 +5021,7 @@
         <v>50</v>
       </c>
       <c r="E153">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -5038,7 +5038,7 @@
         <v>50</v>
       </c>
       <c r="E154">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -5055,7 +5055,7 @@
         <v>50</v>
       </c>
       <c r="E155">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -5072,7 +5072,7 @@
         <v>50</v>
       </c>
       <c r="E156">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -5089,7 +5089,7 @@
         <v>50</v>
       </c>
       <c r="E157">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -5106,7 +5106,7 @@
         <v>50</v>
       </c>
       <c r="E158">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -5123,7 +5123,7 @@
         <v>50</v>
       </c>
       <c r="E159">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -5140,7 +5140,7 @@
         <v>50</v>
       </c>
       <c r="E160">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -5157,7 +5157,7 @@
         <v>50</v>
       </c>
       <c r="E161">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -5174,7 +5174,7 @@
         <v>50</v>
       </c>
       <c r="E162">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -5191,7 +5191,7 @@
         <v>50</v>
       </c>
       <c r="E163">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -5208,7 +5208,7 @@
         <v>50</v>
       </c>
       <c r="E164">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -5225,7 +5225,7 @@
         <v>50</v>
       </c>
       <c r="E165">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -5242,7 +5242,7 @@
         <v>50</v>
       </c>
       <c r="E166">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -5259,7 +5259,7 @@
         <v>50</v>
       </c>
       <c r="E167">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -5276,7 +5276,7 @@
         <v>50</v>
       </c>
       <c r="E168">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -5293,7 +5293,7 @@
         <v>50</v>
       </c>
       <c r="E169">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -5310,7 +5310,7 @@
         <v>50</v>
       </c>
       <c r="E170">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -5327,7 +5327,7 @@
         <v>50</v>
       </c>
       <c r="E171">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -5344,7 +5344,7 @@
         <v>50</v>
       </c>
       <c r="E172">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -5361,7 +5361,7 @@
         <v>50</v>
       </c>
       <c r="E173">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -5378,7 +5378,7 @@
         <v>50</v>
       </c>
       <c r="E174">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -5395,7 +5395,7 @@
         <v>50</v>
       </c>
       <c r="E175">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -5412,7 +5412,7 @@
         <v>50</v>
       </c>
       <c r="E176">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -5429,7 +5429,7 @@
         <v>50</v>
       </c>
       <c r="E177">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -5446,7 +5446,7 @@
         <v>50</v>
       </c>
       <c r="E178">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -5463,7 +5463,7 @@
         <v>50</v>
       </c>
       <c r="E179">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -5480,7 +5480,7 @@
         <v>50</v>
       </c>
       <c r="E180">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -5497,7 +5497,7 @@
         <v>50</v>
       </c>
       <c r="E181">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -5514,7 +5514,7 @@
         <v>50</v>
       </c>
       <c r="E182">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -5531,7 +5531,7 @@
         <v>50</v>
       </c>
       <c r="E183">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -5548,7 +5548,7 @@
         <v>50</v>
       </c>
       <c r="E184">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -5565,7 +5565,7 @@
         <v>50</v>
       </c>
       <c r="E185">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -5582,7 +5582,7 @@
         <v>50</v>
       </c>
       <c r="E186">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -5599,7 +5599,7 @@
         <v>50</v>
       </c>
       <c r="E187">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -5616,7 +5616,7 @@
         <v>50</v>
       </c>
       <c r="E188">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -5633,7 +5633,7 @@
         <v>50</v>
       </c>
       <c r="E189">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -5650,7 +5650,7 @@
         <v>50</v>
       </c>
       <c r="E190">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -5667,7 +5667,7 @@
         <v>50</v>
       </c>
       <c r="E191">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -5684,7 +5684,7 @@
         <v>50</v>
       </c>
       <c r="E192">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -5701,7 +5701,7 @@
         <v>50</v>
       </c>
       <c r="E193">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -5718,7 +5718,7 @@
         <v>50</v>
       </c>
       <c r="E194">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -5735,7 +5735,7 @@
         <v>50</v>
       </c>
       <c r="E195">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -5752,7 +5752,7 @@
         <v>50</v>
       </c>
       <c r="E196">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -5769,7 +5769,7 @@
         <v>50</v>
       </c>
       <c r="E197">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -5786,7 +5786,7 @@
         <v>50</v>
       </c>
       <c r="E198">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -5803,7 +5803,7 @@
         <v>50</v>
       </c>
       <c r="E199">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -5820,7 +5820,7 @@
         <v>50</v>
       </c>
       <c r="E200">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -5837,7 +5837,7 @@
         <v>50</v>
       </c>
       <c r="E201">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -5854,7 +5854,7 @@
         <v>50</v>
       </c>
       <c r="E202">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -5871,7 +5871,7 @@
         <v>50</v>
       </c>
       <c r="E203">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -5888,7 +5888,7 @@
         <v>50</v>
       </c>
       <c r="E204">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -5905,7 +5905,7 @@
         <v>50</v>
       </c>
       <c r="E205">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -5922,7 +5922,7 @@
         <v>50</v>
       </c>
       <c r="E206">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -5939,7 +5939,7 @@
         <v>50</v>
       </c>
       <c r="E207">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -5956,7 +5956,7 @@
         <v>50</v>
       </c>
       <c r="E208">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -5973,7 +5973,7 @@
         <v>50</v>
       </c>
       <c r="E209">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -5990,7 +5990,7 @@
         <v>50</v>
       </c>
       <c r="E210">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -6007,7 +6007,7 @@
         <v>50</v>
       </c>
       <c r="E211">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -6024,7 +6024,7 @@
         <v>50</v>
       </c>
       <c r="E212">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -6041,7 +6041,7 @@
         <v>50</v>
       </c>
       <c r="E213">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -6058,7 +6058,7 @@
         <v>50</v>
       </c>
       <c r="E214">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -6075,7 +6075,7 @@
         <v>50</v>
       </c>
       <c r="E215">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -6092,7 +6092,7 @@
         <v>50</v>
       </c>
       <c r="E216">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -6109,7 +6109,7 @@
         <v>50</v>
       </c>
       <c r="E217">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -6126,7 +6126,7 @@
         <v>50</v>
       </c>
       <c r="E218">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -6143,7 +6143,7 @@
         <v>50</v>
       </c>
       <c r="E219">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -6160,7 +6160,7 @@
         <v>50</v>
       </c>
       <c r="E220">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -6177,7 +6177,7 @@
         <v>50</v>
       </c>
       <c r="E221">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -6194,7 +6194,7 @@
         <v>50</v>
       </c>
       <c r="E222">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -6211,7 +6211,7 @@
         <v>50</v>
       </c>
       <c r="E223">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -6228,7 +6228,7 @@
         <v>50</v>
       </c>
       <c r="E224">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -6245,7 +6245,7 @@
         <v>50</v>
       </c>
       <c r="E225">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -6262,7 +6262,7 @@
         <v>50</v>
       </c>
       <c r="E226">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -6279,7 +6279,7 @@
         <v>50</v>
       </c>
       <c r="E227">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -6296,7 +6296,7 @@
         <v>50</v>
       </c>
       <c r="E228">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -6313,7 +6313,7 @@
         <v>50</v>
       </c>
       <c r="E229">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -6330,7 +6330,7 @@
         <v>50</v>
       </c>
       <c r="E230">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -6347,7 +6347,7 @@
         <v>50</v>
       </c>
       <c r="E231">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -6364,7 +6364,7 @@
         <v>50</v>
       </c>
       <c r="E232">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -6381,7 +6381,7 @@
         <v>50</v>
       </c>
       <c r="E233">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -6398,7 +6398,7 @@
         <v>50</v>
       </c>
       <c r="E234">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -6415,7 +6415,7 @@
         <v>50</v>
       </c>
       <c r="E235">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -6432,7 +6432,7 @@
         <v>50</v>
       </c>
       <c r="E236">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -6449,7 +6449,7 @@
         <v>50</v>
       </c>
       <c r="E237">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -6466,7 +6466,7 @@
         <v>50</v>
       </c>
       <c r="E238">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -6483,7 +6483,7 @@
         <v>50</v>
       </c>
       <c r="E239">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -6500,7 +6500,7 @@
         <v>50</v>
       </c>
       <c r="E240">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -6517,7 +6517,7 @@
         <v>50</v>
       </c>
       <c r="E241">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -6534,7 +6534,7 @@
         <v>50</v>
       </c>
       <c r="E242">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -6551,7 +6551,7 @@
         <v>50</v>
       </c>
       <c r="E243">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -6568,7 +6568,7 @@
         <v>50</v>
       </c>
       <c r="E244">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -6585,7 +6585,7 @@
         <v>50</v>
       </c>
       <c r="E245">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -6602,7 +6602,7 @@
         <v>50</v>
       </c>
       <c r="E246">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -6619,7 +6619,7 @@
         <v>50</v>
       </c>
       <c r="E247">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -6636,7 +6636,7 @@
         <v>50</v>
       </c>
       <c r="E248">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -6653,7 +6653,7 @@
         <v>50</v>
       </c>
       <c r="E249">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -6670,7 +6670,7 @@
         <v>50</v>
       </c>
       <c r="E250">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
@@ -6687,7 +6687,7 @@
         <v>50</v>
       </c>
       <c r="E251">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -6704,7 +6704,7 @@
         <v>50</v>
       </c>
       <c r="E252">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -6721,7 +6721,7 @@
         <v>50</v>
       </c>
       <c r="E253">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
@@ -6738,7 +6738,7 @@
         <v>50</v>
       </c>
       <c r="E254">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -6755,7 +6755,7 @@
         <v>50</v>
       </c>
       <c r="E255">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -6772,7 +6772,7 @@
         <v>50</v>
       </c>
       <c r="E256">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -6789,7 +6789,7 @@
         <v>50</v>
       </c>
       <c r="E257">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -6806,7 +6806,7 @@
         <v>50</v>
       </c>
       <c r="E258">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -6823,7 +6823,7 @@
         <v>50</v>
       </c>
       <c r="E259">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -6840,7 +6840,7 @@
         <v>50</v>
       </c>
       <c r="E260">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
